--- a/org.panorama-research.waters-2019.fmea/waters-challenge-2019-fmea.xlsx
+++ b/org.panorama-research.waters-2019.fmea/waters-challenge-2019-fmea.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WATERS Challenge Artifacts\org.panorama-research.waters-2019.fmea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Integrated Safety Analysis\Additional Artifacts\org.panorama-research.waters-2019.fmea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9DF4AC-347C-46CE-A23E-A46411B70B24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842CE7E3-E9BC-4C04-8865-62C96E2EC0DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,15 +124,6 @@
     <t>Controller</t>
   </si>
   <si>
-    <t>Omission of steer commands</t>
-  </si>
-  <si>
-    <t>Erroneous steer commands</t>
-  </si>
-  <si>
-    <t>Delayed steer commands</t>
-  </si>
-  <si>
     <t>Omission of speed commands</t>
   </si>
   <si>
@@ -468,6 +459,15 @@
   </si>
   <si>
     <t>No information about the distance to objects provided by lidar</t>
+  </si>
+  <si>
+    <t>Omission of steering commands</t>
+  </si>
+  <si>
+    <t>Erroneous steering commands</t>
+  </si>
+  <si>
+    <t>Delayed steering commands</t>
   </si>
 </sst>
 </file>
@@ -1037,9 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1057,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1069,10 +1067,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1080,19 +1078,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="27"/>
     </row>
@@ -1101,16 +1099,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
@@ -1120,16 +1118,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
@@ -1139,22 +1137,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1162,16 +1160,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="25"/>
@@ -1181,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="25"/>
@@ -1200,16 +1198,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="25"/>
@@ -1219,19 +1217,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G9" s="25"/>
     </row>
@@ -1240,16 +1238,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -1259,16 +1257,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -1278,16 +1276,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -1297,22 +1295,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1320,16 +1318,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -1339,16 +1337,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -1358,16 +1356,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -1377,16 +1375,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -1396,19 +1394,19 @@
         <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G18" s="27"/>
     </row>
@@ -1417,16 +1415,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="28"/>
@@ -1436,16 +1434,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="29"/>
@@ -1455,19 +1453,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G21" s="35"/>
     </row>
@@ -1476,16 +1474,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="36"/>
@@ -1495,16 +1493,16 @@
         <v>11</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="36"/>
@@ -1514,16 +1512,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="36"/>
@@ -1533,16 +1531,16 @@
         <v>11</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="36"/>
@@ -1552,16 +1550,16 @@
         <v>11</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="37"/>
@@ -1571,19 +1569,19 @@
         <v>10</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G27" s="27"/>
     </row>
@@ -1592,16 +1590,16 @@
         <v>10</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="28"/>
@@ -1611,16 +1609,16 @@
         <v>10</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="28"/>
@@ -1630,16 +1628,16 @@
         <v>10</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="29"/>
@@ -1649,19 +1647,19 @@
         <v>14</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31" s="27"/>
     </row>
@@ -1670,16 +1668,16 @@
         <v>14</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="28"/>
@@ -1689,16 +1687,16 @@
         <v>14</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="29"/>
@@ -1708,22 +1706,22 @@
         <v>15</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1731,16 +1729,16 @@
         <v>15</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="25"/>
@@ -1750,19 +1748,19 @@
         <v>15</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G36" s="26"/>
     </row>
@@ -1771,19 +1769,19 @@
         <v>19</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G37" s="27"/>
     </row>
@@ -1792,16 +1790,16 @@
         <v>19</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="28"/>
@@ -1811,16 +1809,16 @@
         <v>19</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="28"/>
@@ -1830,16 +1828,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="28"/>
@@ -1849,16 +1847,16 @@
         <v>19</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="28"/>
@@ -1868,16 +1866,16 @@
         <v>19</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="29"/>
